--- a/my_rpg_support/recursos/Rpg_1/Npc.xlsx
+++ b/my_rpg_support/recursos/Rpg_1/Npc.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\MyRpg\MyRpg-support\my_rpg_support\recursos\Rpg_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BB8EB3-A76D-473C-84EF-769C7BF8E33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+  <si>
+    <t>Npcs</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>vel</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>Itens no inv</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Steve (Mercador)</t>
+  </si>
+  <si>
+    <t>200 mesetas / poção de cura peq.</t>
+  </si>
+  <si>
+    <t>Steve tem 35 anos, é um mercador a 20 anos, tem 3 irmão(todos  mercadores), anda pelas cidades em sua carroça vendendo de tudo. Tinha uma filha Charlie.</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Princis</t>
+  </si>
+  <si>
+    <t>Galho de arvore mágica</t>
+  </si>
+  <si>
+    <t>Tem 12 anos, tem aptidões mágicas, sua mãe se separou e foi viver na capital com seu novo marido. Energética, curiosa</t>
+  </si>
+  <si>
+    <t>196 anos, recepcionista da guilda, apresenta as missões e da as recompensas. Raça elfica, solteira. No passado era uma caçadora endu élfica, não gosta de élfos por isso foi para uma sociedade de humanos</t>
+  </si>
+  <si>
+    <t>Barman</t>
+  </si>
+  <si>
+    <t>Mitina</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Segurança da guilda, 35 anos, casado, raça humana</t>
+  </si>
+  <si>
+    <t>1000 mesetas / arma / armadura</t>
+  </si>
+  <si>
+    <t>Filha do dono do café ao lado da guilda, 16 anos, raça humana, mãe morreu quando pequena, foi morta por um ataque de goblins em sua vila</t>
+  </si>
+  <si>
+    <t>Dono do café ao lado da guilda(Escamas de dragão), 42 anos, raça humana, viuvo</t>
+  </si>
+  <si>
+    <t>600 mesetas</t>
+  </si>
+  <si>
+    <t>2300 mesetas / Arma</t>
+  </si>
+  <si>
+    <t>8000 mesetas</t>
+  </si>
+  <si>
+    <t>Rei de todo o império, 30 anos, nascido em Infinitys, conheceu sua esposa em Eldrith, tiveram Yuna em Infinitys</t>
+  </si>
+  <si>
+    <t>Rainha de todo o império, 30 anos, nascida em Eldrith, tiveram Yuna em Infinitys, a rainha foi aprendiz de uma maga e ensinou magia á sua filha</t>
+  </si>
+  <si>
+    <t>Filha de Leonar com Felina, 14 anos, nascida em Infinitys, aprendeu magia com sua mãe, Yuna consegue usar magias do tipo escuridão, incluindo invocações de aliados. Aos 12 anos já estava a frente de vários aspirantes a magos, tem cabelos prateados e pele clara e olhos azuis. Possiu um amuleto chamado Afrogado, um item mágico sem muita utilidade passado de geração a geração.</t>
+  </si>
+  <si>
+    <t>Todo império</t>
+  </si>
+  <si>
+    <t>1000 mesetas / Arma</t>
+  </si>
+  <si>
+    <t>Leonar(rei)</t>
+  </si>
+  <si>
+    <t>Felina(rainha)</t>
+  </si>
+  <si>
+    <t>Yuna(princesa)</t>
+  </si>
+  <si>
+    <t>Clain</t>
+  </si>
+  <si>
+    <t>200 mesetas / Espada leve / Armadura de couro</t>
+  </si>
+  <si>
+    <t>Filho de um fazendeiro, veio para a cidade grande para trabalhar como aventureiro. Bem tranquilo e tem bastante sorte, porém é contra jogos de azar</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +156,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +190,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +477,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="58" customWidth="1"/>
+    <col min="9" max="9" width="255.42578125" customWidth="1"/>
+    <col min="10" max="10" width="132.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>